--- a/DataImportDemo.xlsx
+++ b/DataImportDemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TugasKampus\SEM4\PABD\pabdproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC1349D-9607-4C02-8FF9-41CF99A9D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46D722-710F-4062-BCAD-ADF19FA4D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1070" windowWidth="14400" windowHeight="8240" xr2:uid="{862098DE-5786-4E5A-8C17-EC9010B0BFB7}"/>
+    <workbookView xWindow="3230" yWindow="1840" windowWidth="14400" windowHeight="8240" xr2:uid="{862098DE-5786-4E5A-8C17-EC9010B0BFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,13 +66,13 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>user123</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>employee</t>
+  </si>
+  <si>
+    <t>user1234</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -493,10 +493,10 @@
         <v>45736</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
